--- a/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/G_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/135_Degree_GLCM/G_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\135_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD48A9B5-BDF0-4A3D-902B-E3B95CF4120D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B382" sqref="B382:B400"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4.6079489976038238E-2</v>
+      </c>
+      <c r="B1">
+        <v>0.85992089139260564</v>
+      </c>
+      <c r="C1">
+        <v>0.64215408608364499</v>
+      </c>
+      <c r="D1">
+        <v>0.97696025501198092</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7.5529391090413851E-3</v>
+      </c>
+      <c r="B2">
+        <v>0.91632920894383807</v>
+      </c>
+      <c r="C2">
+        <v>0.90233009660112939</v>
+      </c>
+      <c r="D2">
+        <v>0.99622353044547951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.1900296756747269E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.85475458218980005</v>
+      </c>
+      <c r="C3">
+        <v>0.83120957339600621</v>
+      </c>
+      <c r="D3">
+        <v>0.9890498516216264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.9372756045385742E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.85440401835416702</v>
+      </c>
+      <c r="C4">
+        <v>0.85297161611344974</v>
+      </c>
+      <c r="D4">
+        <v>0.99031362197730721</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.443623595435368E-2</v>
+      </c>
+      <c r="B5">
+        <v>0.88793444287023915</v>
+      </c>
+      <c r="C5">
+        <v>0.77169546618707008</v>
+      </c>
+      <c r="D5">
+        <v>0.98778521654824936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.8079720971817483E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.85926882644747571</v>
+      </c>
+      <c r="C6">
+        <v>0.78532959080452813</v>
+      </c>
+      <c r="D6">
+        <v>0.98596332695049194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1.883067930086638E-2</v>
+      </c>
+      <c r="B7">
+        <v>0.89562847835256043</v>
+      </c>
+      <c r="C7">
+        <v>0.80648898457407703</v>
+      </c>
+      <c r="D7">
+        <v>0.99058466034956683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1.0673219206907317E-2</v>
+      </c>
+      <c r="B8">
+        <v>0.91519237684120269</v>
+      </c>
+      <c r="C8">
+        <v>0.86704909114911066</v>
+      </c>
+      <c r="D8">
+        <v>0.99466339039654639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.6541536312926559E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.81926495609146976</v>
+      </c>
+      <c r="C9">
+        <v>0.77378186487785161</v>
+      </c>
+      <c r="D9">
+        <v>0.98173292654653355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.2955287853067956E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.86662995750249405</v>
+      </c>
+      <c r="C10">
+        <v>0.73316377243483966</v>
+      </c>
+      <c r="D10">
+        <v>0.98352235607346628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2.2722318829347679E-2</v>
+      </c>
+      <c r="B11">
+        <v>0.8456344870589021</v>
+      </c>
+      <c r="C11">
+        <v>0.8358925632653883</v>
+      </c>
+      <c r="D11">
+        <v>0.98863884058532614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2.7599185005434224E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.84799425551258989</v>
+      </c>
+      <c r="C12">
+        <v>0.79779030452129118</v>
+      </c>
+      <c r="D12">
+        <v>0.98620040749728288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.1288367170210721E-2</v>
+      </c>
+      <c r="B13">
+        <v>0.89428807263657117</v>
+      </c>
+      <c r="C13">
+        <v>0.88379450142637872</v>
+      </c>
+      <c r="D13">
+        <v>0.99435581641489446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1.4787810636220464E-2</v>
+      </c>
+      <c r="B14">
+        <v>0.8794056697147502</v>
+      </c>
+      <c r="C14">
+        <v>0.86596071066744817</v>
+      </c>
+      <c r="D14">
+        <v>0.99260609468188987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.9196665955878982E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.84251913714729076</v>
+      </c>
+      <c r="C15">
+        <v>0.8647761831911791</v>
+      </c>
+      <c r="D15">
+        <v>0.99040166702206056</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.4403594599701849E-2</v>
+      </c>
+      <c r="B16">
+        <v>0.87810794034856454</v>
+      </c>
+      <c r="C16">
+        <v>0.86971472150654283</v>
+      </c>
+      <c r="D16">
+        <v>0.99279820270014896</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8.9799714565192978E-3</v>
+      </c>
+      <c r="B17">
+        <v>0.88259991529026516</v>
+      </c>
+      <c r="C17">
+        <v>0.91563165176583372</v>
+      </c>
+      <c r="D17">
+        <v>0.99551001427174035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.2036556708079432E-2</v>
+      </c>
+      <c r="B18">
+        <v>0.89273096366950644</v>
+      </c>
+      <c r="C18">
+        <v>0.87911776556331855</v>
+      </c>
+      <c r="D18">
+        <v>0.9939817216459601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2.1394849490041709E-2</v>
+      </c>
+      <c r="B19">
+        <v>0.81136710126754064</v>
+      </c>
+      <c r="C19">
+        <v>0.87059088990919808</v>
+      </c>
+      <c r="D19">
+        <v>0.98930257525497911</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.0235305477586545E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.91154901702961044</v>
+      </c>
+      <c r="C20">
+        <v>0.87527142449348017</v>
+      </c>
+      <c r="D20">
+        <v>0.99488234726120672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.905445083155099E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.8327581755958372</v>
+      </c>
+      <c r="C21">
+        <v>0.80207693242458622</v>
+      </c>
+      <c r="D21">
+        <v>0.98547277458422444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4.9691513747800072E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.82989036870818023</v>
+      </c>
+      <c r="C22">
+        <v>0.66630074566535769</v>
+      </c>
+      <c r="D22">
+        <v>0.97515424312609988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2.4585066895742649E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.85297885289685094</v>
+      </c>
+      <c r="C23">
+        <v>0.81310853784992487</v>
+      </c>
+      <c r="D23">
+        <v>0.98770746655212871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.9312768202044879E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.8952869559368799</v>
+      </c>
+      <c r="C24">
+        <v>0.59400953630979281</v>
+      </c>
+      <c r="D24">
+        <v>0.98034361589897756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>5.0991501416430595E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.87257003179410686</v>
+      </c>
+      <c r="C25">
+        <v>0.95492521585018486</v>
+      </c>
+      <c r="D25">
+        <v>0.99745042492917846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2.42776723789382E-2</v>
+      </c>
+      <c r="B26">
+        <v>0.83883848484432277</v>
+      </c>
+      <c r="C26">
+        <v>0.83116490715800484</v>
+      </c>
+      <c r="D26">
+        <v>0.98786116381053091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.0211816237532192E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.89522950047318484</v>
+      </c>
+      <c r="C27">
+        <v>0.78975675914295296</v>
+      </c>
+      <c r="D27">
+        <v>0.98989409188123378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1.2961401603383969E-2</v>
+      </c>
+      <c r="B28">
+        <v>0.91900284439030577</v>
+      </c>
+      <c r="C28">
+        <v>0.83146364256424288</v>
+      </c>
+      <c r="D28">
+        <v>0.99351929919830795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3.605753576832469E-2</v>
+      </c>
+      <c r="B29">
+        <v>0.85600506044528701</v>
+      </c>
+      <c r="C29">
+        <v>0.72450570670616554</v>
+      </c>
+      <c r="D29">
+        <v>0.98197123211583759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4.1891615916719464E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.8499414955184772</v>
+      </c>
+      <c r="C30">
+        <v>0.69238715277210239</v>
+      </c>
+      <c r="D30">
+        <v>0.97905419204164013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2.2750946866514701E-2</v>
+      </c>
+      <c r="B31">
+        <v>0.88522123387209162</v>
+      </c>
+      <c r="C31">
+        <v>0.79257423423823692</v>
+      </c>
+      <c r="D31">
+        <v>0.98862452656674271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.6418542650791976E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.84858033545589118</v>
+      </c>
+      <c r="C32">
+        <v>0.66158484766399572</v>
+      </c>
+      <c r="D32">
+        <v>0.97679072867460415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2.7962053720201729E-2</v>
+      </c>
+      <c r="B33">
+        <v>0.83209062043624782</v>
+      </c>
+      <c r="C33">
+        <v>0.80986422798060631</v>
+      </c>
+      <c r="D33">
+        <v>0.98601897313989906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5.262243657208252E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.86684438207810666</v>
+      </c>
+      <c r="C34">
+        <v>0.95558075936767417</v>
+      </c>
+      <c r="D34">
+        <v>0.99736887817139586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.5611158370244346E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.82043156531562467</v>
+      </c>
+      <c r="C35">
+        <v>0.8991426596038129</v>
+      </c>
+      <c r="D35">
+        <v>0.99219442081487785</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1.5288085349311016E-2</v>
+      </c>
+      <c r="B36">
+        <v>0.87930350113262146</v>
+      </c>
+      <c r="C36">
+        <v>0.86093040742114901</v>
+      </c>
+      <c r="D36">
+        <v>0.99235595732534454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.7759148068426423E-2</v>
+      </c>
+      <c r="B37">
+        <v>0.8871691693200956</v>
+      </c>
+      <c r="C37">
+        <v>0.82737405890905802</v>
+      </c>
+      <c r="D37">
+        <v>0.99112042596578687</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3.4640069772122466E-2</v>
+      </c>
+      <c r="B38">
+        <v>0.8429404138805916</v>
+      </c>
+      <c r="C38">
+        <v>0.7665626888722904</v>
+      </c>
+      <c r="D38">
+        <v>0.98267996511393874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3.0692499520429694E-2</v>
+      </c>
+      <c r="B39">
+        <v>0.82653692211897656</v>
+      </c>
+      <c r="C39">
+        <v>0.7991391534783312</v>
+      </c>
+      <c r="D39">
+        <v>0.98465375023978519</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3.9953058530145219E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.84403673065354479</v>
+      </c>
+      <c r="C40">
+        <v>0.73075906679900005</v>
+      </c>
+      <c r="D40">
+        <v>0.98002347073492746</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5.4145558197139614E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.88417336486267095</v>
+      </c>
+      <c r="C41">
+        <v>0.52015106383945253</v>
+      </c>
+      <c r="D41">
+        <v>0.97292722090143013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5.3283036661558411E-2</v>
+      </c>
+      <c r="B42">
+        <v>0.84492029871025864</v>
+      </c>
+      <c r="C42">
+        <v>0.64589802799480778</v>
+      </c>
+      <c r="D42">
+        <v>0.97335848166922079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5.9980861244019142E-2</v>
+      </c>
+      <c r="B43">
+        <v>0.87386897282352094</v>
+      </c>
+      <c r="C43">
+        <v>0.51667419040795481</v>
+      </c>
+      <c r="D43">
+        <v>0.97000956937799032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.6054731012273876E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.88040141712216635</v>
+      </c>
+      <c r="C44">
+        <v>0.7034360330830236</v>
+      </c>
+      <c r="D44">
+        <v>0.98197263449386307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3.9229781387007522E-2</v>
+      </c>
+      <c r="B45">
+        <v>0.88094030016694813</v>
+      </c>
+      <c r="C45">
+        <v>0.6818734913121326</v>
+      </c>
+      <c r="D45">
+        <v>0.98038510930649625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2.9740640701693244E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.88611468471866062</v>
+      </c>
+      <c r="C46">
+        <v>0.74005359635605383</v>
+      </c>
+      <c r="D46">
+        <v>0.98512967964915354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3.9830719442369926E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.86774611633799392</v>
+      </c>
+      <c r="C47">
+        <v>0.69772844228097808</v>
+      </c>
+      <c r="D47">
+        <v>0.98008464027881503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3.588852193058694E-2</v>
+      </c>
+      <c r="B48">
+        <v>0.88733673301939009</v>
+      </c>
+      <c r="C48">
+        <v>0.6919068647823795</v>
+      </c>
+      <c r="D48">
+        <v>0.98205573903470644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4.1352141420308887E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.8783967333289816</v>
+      </c>
+      <c r="C49">
+        <v>0.66874785441439477</v>
+      </c>
+      <c r="D49">
+        <v>0.97932392928984557</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3.3787567668471158E-2</v>
+      </c>
+      <c r="B50">
+        <v>0.8786710082191781</v>
+      </c>
+      <c r="C50">
+        <v>0.72214087989621722</v>
+      </c>
+      <c r="D50">
+        <v>0.98310621616576443</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3.0773398347555193E-2</v>
+      </c>
+      <c r="B51">
+        <v>0.87578397495394578</v>
+      </c>
+      <c r="C51">
+        <v>0.75281282897476987</v>
+      </c>
+      <c r="D51">
+        <v>0.98461330082622234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3.4051706339225725E-2</v>
+      </c>
+      <c r="B52">
+        <v>0.87276405285175795</v>
+      </c>
+      <c r="C52">
+        <v>0.72706459386183608</v>
+      </c>
+      <c r="D52">
+        <v>0.9829741468303872</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3.1624797019772666E-2</v>
+      </c>
+      <c r="B53">
+        <v>0.87153424495509491</v>
+      </c>
+      <c r="C53">
+        <v>0.74910531586046825</v>
+      </c>
+      <c r="D53">
+        <v>0.98418760149011364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>4.8418849117132505E-2</v>
+      </c>
+      <c r="B54">
+        <v>0.89382394660829068</v>
+      </c>
+      <c r="C54">
+        <v>0.54038717101008404</v>
+      </c>
+      <c r="D54">
+        <v>0.97579057544143388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.2064669007894864E-2</v>
+      </c>
+      <c r="B55">
+        <v>0.89673412636622107</v>
+      </c>
+      <c r="C55">
+        <v>0.58051420606563309</v>
+      </c>
+      <c r="D55">
+        <v>0.97896766549605252</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4.6908425474883372E-2</v>
+      </c>
+      <c r="B56">
+        <v>0.89046182322968559</v>
+      </c>
+      <c r="C56">
+        <v>0.56472178189456168</v>
+      </c>
+      <c r="D56">
+        <v>0.97654578726255836</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2.6475715658960199E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.88581194745461667</v>
+      </c>
+      <c r="C57">
+        <v>0.76468762766072051</v>
+      </c>
+      <c r="D57">
+        <v>0.98676214217051994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3.0216512015227223E-2</v>
+      </c>
+      <c r="B58">
+        <v>0.86533703566753872</v>
+      </c>
+      <c r="C58">
+        <v>0.76811851995649671</v>
+      </c>
+      <c r="D58">
+        <v>0.98489174399238633</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.7752261937207482E-2</v>
+      </c>
+      <c r="B59">
+        <v>0.87114354994442789</v>
+      </c>
+      <c r="C59">
+        <v>0.77777192670610984</v>
+      </c>
+      <c r="D59">
+        <v>0.98612386903139626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3.3671648335085992E-2</v>
+      </c>
+      <c r="B60">
+        <v>0.86368732547543392</v>
+      </c>
+      <c r="C60">
+        <v>0.74695705158295767</v>
+      </c>
+      <c r="D60">
+        <v>0.98316417583245697</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2.4603156295620141E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.86582134361222518</v>
+      </c>
+      <c r="C61">
+        <v>0.7926456482114177</v>
+      </c>
+      <c r="D61">
+        <v>0.98769842185218992</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1.5281973318714483E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.89518261073819738</v>
+      </c>
+      <c r="C62">
+        <v>0.8391557144256736</v>
+      </c>
+      <c r="D62">
+        <v>0.99235901334064269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.7356116886750067E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.89814728029937707</v>
+      </c>
+      <c r="C63">
+        <v>0.8125657685322426</v>
+      </c>
+      <c r="D63">
+        <v>0.99132194155662479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4.470255650388353E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.8309756938883438</v>
+      </c>
+      <c r="C64">
+        <v>0.69334154823139049</v>
+      </c>
+      <c r="D64">
+        <v>0.97764872174805839</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.1554633920164755E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.84718544664090445</v>
+      </c>
+      <c r="C65">
+        <v>0.76439936738237368</v>
+      </c>
+      <c r="D65">
+        <v>0.98422268303991756</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2.7268579110301127E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.870888402890725</v>
+      </c>
+      <c r="C66">
+        <v>0.76244915943575076</v>
+      </c>
+      <c r="D66">
+        <v>0.98636571044484933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3.3015038568228877E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.86192647968338865</v>
+      </c>
+      <c r="C67">
+        <v>0.73019285719789662</v>
+      </c>
+      <c r="D67">
+        <v>0.98349248071588569</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2.3397564620609199E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.88407913404395555</v>
+      </c>
+      <c r="C68">
+        <v>0.77531238525412149</v>
+      </c>
+      <c r="D68">
+        <v>0.98830121768969537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2.1675858736979199E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.89813730547363602</v>
+      </c>
+      <c r="C69">
+        <v>0.76737307056505133</v>
+      </c>
+      <c r="D69">
+        <v>0.9891620706315104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2.7431478753645232E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.8547141922396615</v>
+      </c>
+      <c r="C70">
+        <v>0.78590811844762598</v>
+      </c>
+      <c r="D70">
+        <v>0.9862842606231772</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4.0070256676380187E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.85464996030855922</v>
+      </c>
+      <c r="C71">
+        <v>0.68686520815735674</v>
+      </c>
+      <c r="D71">
+        <v>0.97996487166180979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>3.6818043279487962E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.85876628190593096</v>
+      </c>
+      <c r="C72">
+        <v>0.70435286728637125</v>
+      </c>
+      <c r="D72">
+        <v>0.98159097836025588</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>3.8826615550114442E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.8507254930092597</v>
+      </c>
+      <c r="C73">
+        <v>0.70394705584790584</v>
+      </c>
+      <c r="D73">
+        <v>0.98058669222494277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2.4352745833589571E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.87833305722755517</v>
+      </c>
+      <c r="C74">
+        <v>0.77843095407473728</v>
+      </c>
+      <c r="D74">
+        <v>0.98782362708320537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2.8822438701093044E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.85077639197249588</v>
+      </c>
+      <c r="C75">
+        <v>0.77945402836801758</v>
+      </c>
+      <c r="D75">
+        <v>0.98558878064945332</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>3.5697097394448089E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.86643730674018826</v>
+      </c>
+      <c r="C76">
+        <v>0.70012225222694058</v>
+      </c>
+      <c r="D76">
+        <v>0.98215145130277592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>3.3148969986497231E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.86747453902307048</v>
+      </c>
+      <c r="C77">
+        <v>0.71801357293618717</v>
+      </c>
+      <c r="D77">
+        <v>0.98342551500675135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1.6800143018458891E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.89635360074277026</v>
+      </c>
+      <c r="C78">
+        <v>0.82143270755601083</v>
+      </c>
+      <c r="D78">
+        <v>0.99159992849077061</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2.082837328254241E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.85410583363970127</v>
+      </c>
+      <c r="C79">
+        <v>0.83706248350838264</v>
+      </c>
+      <c r="D79">
+        <v>0.98958581335872886</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1.3803085698356367E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.9008435630775361</v>
+      </c>
+      <c r="C80">
+        <v>0.84831010673970997</v>
+      </c>
+      <c r="D80">
+        <v>0.9930984571508219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2.4603156295620141E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.86582134361222518</v>
+      </c>
+      <c r="C81">
+        <v>0.7926456482114177</v>
+      </c>
+      <c r="D81">
+        <v>0.98769842185218992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1.5281973318714483E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.89518261073819738</v>
+      </c>
+      <c r="C82">
+        <v>0.8391557144256736</v>
+      </c>
+      <c r="D82">
+        <v>0.99235901334064269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>1.7356116886750067E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.89814728029937707</v>
+      </c>
+      <c r="C83">
+        <v>0.8125657685322426</v>
+      </c>
+      <c r="D83">
+        <v>0.99132194155662479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4.470255650388353E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.8309756938883438</v>
+      </c>
+      <c r="C84">
+        <v>0.69334154823139049</v>
+      </c>
+      <c r="D84">
+        <v>0.97764872174805839</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3.1554633920164755E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.84718544664090445</v>
+      </c>
+      <c r="C85">
+        <v>0.76439936738237368</v>
+      </c>
+      <c r="D85">
+        <v>0.98422268303991756</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2.7268579110301127E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.870888402890725</v>
+      </c>
+      <c r="C86">
+        <v>0.76244915943575076</v>
+      </c>
+      <c r="D86">
+        <v>0.98636571044484933</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>3.3015038568228877E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.86192647968338865</v>
+      </c>
+      <c r="C87">
+        <v>0.73019285719789662</v>
+      </c>
+      <c r="D87">
+        <v>0.98349248071588569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2.3397564620609199E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.88407913404395555</v>
+      </c>
+      <c r="C88">
+        <v>0.77531238525412149</v>
+      </c>
+      <c r="D88">
+        <v>0.98830121768969537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2.1675858736979199E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.89813730547363602</v>
+      </c>
+      <c r="C89">
+        <v>0.76737307056505133</v>
+      </c>
+      <c r="D89">
+        <v>0.9891620706315104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2.7431478753645232E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.8547141922396615</v>
+      </c>
+      <c r="C90">
+        <v>0.78590811844762598</v>
+      </c>
+      <c r="D90">
+        <v>0.9862842606231772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>4.0070256676380187E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.85464996030855922</v>
+      </c>
+      <c r="C91">
+        <v>0.68686520815735674</v>
+      </c>
+      <c r="D91">
+        <v>0.97996487166180979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>3.6818043279487962E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.85876628190593096</v>
+      </c>
+      <c r="C92">
+        <v>0.70435286728637125</v>
+      </c>
+      <c r="D92">
+        <v>0.98159097836025588</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>3.8826615550114442E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.8507254930092597</v>
+      </c>
+      <c r="C93">
+        <v>0.70394705584790584</v>
+      </c>
+      <c r="D93">
+        <v>0.98058669222494277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2.4352745833589571E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.87833305722755517</v>
+      </c>
+      <c r="C94">
+        <v>0.77843095407473728</v>
+      </c>
+      <c r="D94">
+        <v>0.98782362708320537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2.8822438701093044E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.85077639197249588</v>
+      </c>
+      <c r="C95">
+        <v>0.77945402836801758</v>
+      </c>
+      <c r="D95">
+        <v>0.98558878064945332</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>3.5697097394448089E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.86643730674018826</v>
+      </c>
+      <c r="C96">
+        <v>0.70012225222694058</v>
+      </c>
+      <c r="D96">
+        <v>0.98215145130277592</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3.3148969986497231E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.86747453902307048</v>
+      </c>
+      <c r="C97">
+        <v>0.71801357293618717</v>
+      </c>
+      <c r="D97">
+        <v>0.98342551500675135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>1.6800143018458891E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.89635360074277026</v>
+      </c>
+      <c r="C98">
+        <v>0.82143270755601083</v>
+      </c>
+      <c r="D98">
+        <v>0.99159992849077061</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2.082837328254241E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.85410583363970127</v>
+      </c>
+      <c r="C99">
+        <v>0.83706248350838264</v>
+      </c>
+      <c r="D99">
+        <v>0.98958581335872886</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1.3803085698356367E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.9008435630775361</v>
+      </c>
+      <c r="C100">
+        <v>0.84831010673970997</v>
+      </c>
+      <c r="D100">
+        <v>0.9930984571508219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.7378012455210934E-3</v>
+      </c>
+      <c r="B101">
+        <v>0.7576769138134638</v>
+      </c>
+      <c r="C101">
+        <v>0.99155721381300088</v>
+      </c>
+      <c r="D101">
+        <v>0.99913109937723943</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2.4146193136313332E-2</v>
+      </c>
+      <c r="B102">
+        <v>0.71572938739272296</v>
+      </c>
+      <c r="C102">
+        <v>0.89238866870735534</v>
+      </c>
+      <c r="D102">
+        <v>0.9879269034318432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2.0362741912378718E-2</v>
+      </c>
+      <c r="B103">
+        <v>0.87004395885128905</v>
+      </c>
+      <c r="C103">
+        <v>0.82368925456531972</v>
+      </c>
+      <c r="D103">
+        <v>0.98981862904381068</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>6.6877492943497787E-3</v>
+      </c>
+      <c r="B104">
+        <v>0.70275465609996646</v>
+      </c>
+      <c r="C104">
+        <v>0.97087034502245817</v>
+      </c>
+      <c r="D104">
+        <v>0.99665612535282511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4.0924902803355837E-4</v>
+      </c>
+      <c r="B105">
+        <v>0.88157309254756422</v>
+      </c>
+      <c r="C105">
+        <v>0.99636372444017074</v>
+      </c>
+      <c r="D105">
+        <v>0.9997953754859833</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>3.004150646191475E-3</v>
+      </c>
+      <c r="B106">
+        <v>0.71746460381013333</v>
+      </c>
+      <c r="C106">
+        <v>0.98716711670466095</v>
+      </c>
+      <c r="D106">
+        <v>0.99849792467690413</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1.8361574696829429E-3</v>
+      </c>
+      <c r="B107">
+        <v>0.76558238765227571</v>
+      </c>
+      <c r="C107">
+        <v>0.99057023903156982</v>
+      </c>
+      <c r="D107">
+        <v>0.99908192126515849</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>5.6314699792960662E-4</v>
+      </c>
+      <c r="B108">
+        <v>0.86693679355265563</v>
+      </c>
+      <c r="C108">
+        <v>0.99563478154944662</v>
+      </c>
+      <c r="D108">
+        <v>0.99971842650103515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>6.3772529982709947E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.81740318138441004</v>
+      </c>
+      <c r="C109">
+        <v>0.99615690973570603</v>
+      </c>
+      <c r="D109">
+        <v>0.99968113735008657</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2.9690243858283399E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.91148922999248727</v>
+      </c>
+      <c r="C110">
+        <v>0.99634876411431672</v>
+      </c>
+      <c r="D110">
+        <v>0.9998515487807087</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2.890470195829356E-4</v>
+      </c>
+      <c r="B111">
+        <v>0.90602809304103382</v>
+      </c>
+      <c r="C111">
+        <v>0.99663514896882666</v>
+      </c>
+      <c r="D111">
+        <v>0.99985547649020845</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>6.5312394947894146E-4</v>
+      </c>
+      <c r="B112">
+        <v>0.83219053485231054</v>
+      </c>
+      <c r="C112">
+        <v>0.99550639042079725</v>
+      </c>
+      <c r="D112">
+        <v>0.99967343802526054</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2.7132605391039981E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.8961534648272893</v>
+      </c>
+      <c r="C113">
+        <v>0.99733833904806879</v>
+      </c>
+      <c r="D113">
+        <v>0.99986433697304478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>1.0645452256421535E-3</v>
+      </c>
+      <c r="B114">
+        <v>0.80351072261393586</v>
+      </c>
+      <c r="C114">
+        <v>0.99400833314757586</v>
+      </c>
+      <c r="D114">
+        <v>0.99946772738717904</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2.8284913477248036E-3</v>
+      </c>
+      <c r="B115">
+        <v>0.74188746570778785</v>
+      </c>
+      <c r="C115">
+        <v>0.98647634059607636</v>
+      </c>
+      <c r="D115">
+        <v>0.99858575432613761</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>6.8595370739439555E-4</v>
+      </c>
+      <c r="B116">
+        <v>0.82459039565305636</v>
+      </c>
+      <c r="C116">
+        <v>0.99554578025016827</v>
+      </c>
+      <c r="D116">
+        <v>0.99965702314630278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>4.6710687951372358E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.84967406472900675</v>
+      </c>
+      <c r="C117">
+        <v>0.99649849371431576</v>
+      </c>
+      <c r="D117">
+        <v>0.99976644656024305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1.7321601326760953E-3</v>
+      </c>
+      <c r="B118">
+        <v>0.75386557900908968</v>
+      </c>
+      <c r="C118">
+        <v>0.99188411476907878</v>
+      </c>
+      <c r="D118">
+        <v>0.99913391993366185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1.463912599639452E-3</v>
+      </c>
+      <c r="B119">
+        <v>0.77178254321351836</v>
+      </c>
+      <c r="C119">
+        <v>0.99257423734378381</v>
+      </c>
+      <c r="D119">
+        <v>0.99926804370018041</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1.8659623111845418E-3</v>
+      </c>
+      <c r="B120">
+        <v>0.7367514884234394</v>
+      </c>
+      <c r="C120">
+        <v>0.99143676472063968</v>
+      </c>
+      <c r="D120">
+        <v>0.99906701884440796</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2.4215946325479797E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.93695196355299015</v>
+      </c>
+      <c r="C121">
+        <v>0.97954442682936238</v>
+      </c>
+      <c r="D121">
+        <v>0.99878920268372606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1.1795612032323976E-2</v>
+      </c>
+      <c r="B122">
+        <v>0.72854381311087624</v>
+      </c>
+      <c r="C122">
+        <v>0.94489150600966265</v>
+      </c>
+      <c r="D122">
+        <v>0.99410219398383814</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>1.202664559105792E-2</v>
+      </c>
+      <c r="B123">
+        <v>0.80064431016806814</v>
+      </c>
+      <c r="C123">
+        <v>0.92779159386041821</v>
+      </c>
+      <c r="D123">
+        <v>0.99398667720447098</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>4.8756186777248346E-3</v>
+      </c>
+      <c r="B124">
+        <v>0.64227439764302041</v>
+      </c>
+      <c r="C124">
+        <v>0.98151954900533855</v>
+      </c>
+      <c r="D124">
+        <v>0.9975621906611376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>4.4569309255294593E-4</v>
+      </c>
+      <c r="B125">
+        <v>0.84180045452814001</v>
+      </c>
+      <c r="C125">
+        <v>0.99674105944680491</v>
+      </c>
+      <c r="D125">
+        <v>0.99977715345372353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>4.9178231747499287E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.87516098650096741</v>
+      </c>
+      <c r="C126">
+        <v>0.99573863915411642</v>
+      </c>
+      <c r="D126">
+        <v>0.99975410884126248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>4.4686873047095352E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.76387152844818507</v>
+      </c>
+      <c r="C127">
+        <v>0.97683927188208453</v>
+      </c>
+      <c r="D127">
+        <v>0.99776565634764514</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>1.0297810126179956E-3</v>
+      </c>
+      <c r="B128">
+        <v>0.72501605461374508</v>
+      </c>
+      <c r="C128">
+        <v>0.99522779254984706</v>
+      </c>
+      <c r="D128">
+        <v>0.99948510949369107</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2.9187592992697404E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.89165528682620154</v>
+      </c>
+      <c r="C129">
+        <v>0.98129424573257906</v>
+      </c>
+      <c r="D129">
+        <v>0.99854062035036506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2.1042158935455791E-3</v>
+      </c>
+      <c r="B130">
+        <v>0.9404563147995767</v>
+      </c>
+      <c r="C130">
+        <v>0.9812944765278544</v>
+      </c>
+      <c r="D130">
+        <v>0.9989478920532272</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>6.6976322646425737E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.77085433007289861</v>
+      </c>
+      <c r="C131">
+        <v>0.96499211352790271</v>
+      </c>
+      <c r="D131">
+        <v>0.9966511838676787</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>6.4283972601727546E-4</v>
+      </c>
+      <c r="B132">
+        <v>0.95152623740441489</v>
+      </c>
+      <c r="C132">
+        <v>0.99130933981671665</v>
+      </c>
+      <c r="D132">
+        <v>0.99967858013699129</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>1.3962836289270477E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.94274740466831242</v>
+      </c>
+      <c r="C133">
+        <v>0.98547677952268542</v>
+      </c>
+      <c r="D133">
+        <v>0.99930185818553652</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>4.2386087390139003E-4</v>
+      </c>
+      <c r="B134">
+        <v>0.80877659820613979</v>
+      </c>
+      <c r="C134">
+        <v>0.99735974450544118</v>
+      </c>
+      <c r="D134">
+        <v>0.99978806956304944</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>4.2380206213161291E-3</v>
+      </c>
+      <c r="B135">
+        <v>0.66100995398579931</v>
+      </c>
+      <c r="C135">
+        <v>0.98336685221438258</v>
+      </c>
+      <c r="D135">
+        <v>0.9978809896893418</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>9.9458289086033283E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.79430344447813439</v>
+      </c>
+      <c r="C136">
+        <v>0.94180181541863084</v>
+      </c>
+      <c r="D136">
+        <v>0.9950270855456983</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>6.3104898174759418E-4</v>
+      </c>
+      <c r="B137">
+        <v>0.84570906551150826</v>
+      </c>
+      <c r="C137">
+        <v>0.99528961321827425</v>
+      </c>
+      <c r="D137">
+        <v>0.9996844755091262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2.9995000833194467E-4</v>
+      </c>
+      <c r="B138">
+        <v>0.85156283864877391</v>
+      </c>
+      <c r="C138">
+        <v>0.99768251718086987</v>
+      </c>
+      <c r="D138">
+        <v>0.99985002499583397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>1.833992873276016E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.73519411658004752</v>
+      </c>
+      <c r="C139">
+        <v>0.99125139255335581</v>
+      </c>
+      <c r="D139">
+        <v>0.99908300356336199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>1.0603127326880119E-3</v>
+      </c>
+      <c r="B140">
+        <v>0.77532108632567109</v>
+      </c>
+      <c r="C140">
+        <v>0.99460167185965775</v>
+      </c>
+      <c r="D140">
+        <v>0.99946984363365587</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>5.7226507451697703E-2</v>
+      </c>
+      <c r="B141">
+        <v>0.80846917354900127</v>
+      </c>
+      <c r="C141">
+        <v>0.64727980259983309</v>
+      </c>
+      <c r="D141">
+        <v>0.97138674627415122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>8.9775279780488854E-2</v>
+      </c>
+      <c r="B142">
+        <v>0.81559217477805168</v>
+      </c>
+      <c r="C142">
+        <v>0.43162260437173688</v>
+      </c>
+      <c r="D142">
+        <v>0.95511236010975542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>7.0603191577103222E-2</v>
+      </c>
+      <c r="B143">
+        <v>0.8109218848329347</v>
+      </c>
+      <c r="C143">
+        <v>0.56201752245411984</v>
+      </c>
+      <c r="D143">
+        <v>0.96469840421144837</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>5.3008446122645936E-2</v>
+      </c>
+      <c r="B144">
+        <v>0.83168639692677926</v>
+      </c>
+      <c r="C144">
+        <v>0.63486291167830611</v>
+      </c>
+      <c r="D144">
+        <v>0.97349577693867706</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>3.902411992075476E-2</v>
+      </c>
+      <c r="B145">
+        <v>0.82972067482266765</v>
+      </c>
+      <c r="C145">
+        <v>0.73333175942526418</v>
+      </c>
+      <c r="D145">
+        <v>0.9804879400396227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6.6697517443321669E-2</v>
+      </c>
+      <c r="B146">
+        <v>0.8309987949561769</v>
+      </c>
+      <c r="C146">
+        <v>0.54309712138887478</v>
+      </c>
+      <c r="D146">
+        <v>0.96665124127833912</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>8.1243836167857519E-2</v>
+      </c>
+      <c r="B147">
+        <v>0.81311992359019913</v>
+      </c>
+      <c r="C147">
+        <v>0.49069447765057939</v>
+      </c>
+      <c r="D147">
+        <v>0.95937808191607121</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>7.3959291652711423E-2</v>
+      </c>
+      <c r="B148">
+        <v>0.84066669499913138</v>
+      </c>
+      <c r="C148">
+        <v>0.46750260803264754</v>
+      </c>
+      <c r="D148">
+        <v>0.9630203541736444</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>8.1009761619872944E-2</v>
+      </c>
+      <c r="B149">
+        <v>0.83147875134828464</v>
+      </c>
+      <c r="C149">
+        <v>0.44484512807074755</v>
+      </c>
+      <c r="D149">
+        <v>0.95949511919006358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>8.7920169255659777E-2</v>
+      </c>
+      <c r="B150">
+        <v>0.8214756095288942</v>
+      </c>
+      <c r="C150">
+        <v>0.4273854853581377</v>
+      </c>
+      <c r="D150">
+        <v>0.95603991537217003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>7.558084400189663E-2</v>
+      </c>
+      <c r="B151">
+        <v>0.83790824897410554</v>
+      </c>
+      <c r="C151">
+        <v>0.46385698132117081</v>
+      </c>
+      <c r="D151">
+        <v>0.96220957799905182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>7.273175289274017E-2</v>
+      </c>
+      <c r="B152">
+        <v>0.8249197563295434</v>
+      </c>
+      <c r="C152">
+        <v>0.5171821042286594</v>
+      </c>
+      <c r="D152">
+        <v>0.96363412355362976</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6.6965515514262108E-2</v>
+      </c>
+      <c r="B153">
+        <v>0.83545832206635973</v>
+      </c>
+      <c r="C153">
+        <v>0.53053692579413159</v>
+      </c>
+      <c r="D153">
+        <v>0.96651724224286895</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>8.664299371756351E-2</v>
+      </c>
+      <c r="B154">
+        <v>0.81918012535161255</v>
+      </c>
+      <c r="C154">
+        <v>0.44197392756894344</v>
+      </c>
+      <c r="D154">
+        <v>0.95667850314121816</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>7.5912110373019925E-2</v>
+      </c>
+      <c r="B155">
+        <v>0.80921169960619965</v>
+      </c>
+      <c r="C155">
+        <v>0.53213594868727199</v>
+      </c>
+      <c r="D155">
+        <v>0.96204394481348987</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>7.1374144083071897E-2</v>
+      </c>
+      <c r="B156">
+        <v>0.85708120359878981</v>
+      </c>
+      <c r="C156">
+        <v>0.43431668365067477</v>
+      </c>
+      <c r="D156">
+        <v>0.96431292795846413</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6.7839477595575154E-2</v>
+      </c>
+      <c r="B157">
+        <v>0.86425281920985753</v>
+      </c>
+      <c r="C157">
+        <v>0.4370174932310239</v>
+      </c>
+      <c r="D157">
+        <v>0.96608026120221235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>7.7396361482570758E-2</v>
+      </c>
+      <c r="B158">
+        <v>0.84003796626998173</v>
+      </c>
+      <c r="C158">
+        <v>0.4447999153922591</v>
+      </c>
+      <c r="D158">
+        <v>0.96130181925871461</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6.5338759267393048E-2</v>
+      </c>
+      <c r="B159">
+        <v>0.81777731108876706</v>
+      </c>
+      <c r="C159">
+        <v>0.58042004718034768</v>
+      </c>
+      <c r="D159">
+        <v>0.96733062036630335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>8.2687279754461745E-2</v>
+      </c>
+      <c r="B160">
+        <v>0.82758451113669707</v>
+      </c>
+      <c r="C160">
+        <v>0.44462351144360301</v>
+      </c>
+      <c r="D160">
+        <v>0.95865636012276911</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>5.3246009877134834E-5</v>
+      </c>
+      <c r="B161">
+        <v>0.57140194676969969</v>
+      </c>
+      <c r="C161">
+        <v>0.99982252385342152</v>
+      </c>
+      <c r="D161">
+        <v>0.99997337699506139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7.3949528117348673E-2</v>
+      </c>
+      <c r="B162">
+        <v>0.80515100830329389</v>
+      </c>
+      <c r="C162">
+        <v>0.5519967886337197</v>
+      </c>
+      <c r="D162">
+        <v>0.96302523594132561</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>7.9132547016252233E-2</v>
+      </c>
+      <c r="B163">
+        <v>0.831887604191626</v>
+      </c>
+      <c r="C163">
+        <v>0.4565509618865275</v>
+      </c>
+      <c r="D163">
+        <v>0.96043372649187397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6.741822667080369E-4</v>
+      </c>
+      <c r="B164">
+        <v>0.71394822497607158</v>
+      </c>
+      <c r="C164">
+        <v>0.99696941826713104</v>
+      </c>
+      <c r="D164">
+        <v>0.99966290886664588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>8.9164631535359529E-2</v>
+      </c>
+      <c r="B165">
+        <v>0.81766123436711113</v>
+      </c>
+      <c r="C165">
+        <v>0.42978058067483549</v>
+      </c>
+      <c r="D165">
+        <v>0.95541768423232032</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2.3167908121093768E-2</v>
+      </c>
+      <c r="B166">
+        <v>0.80889176282112485</v>
+      </c>
+      <c r="C166">
+        <v>0.85614510139547173</v>
+      </c>
+      <c r="D166">
+        <v>0.98841604593945309</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>9.5107449211867645E-2</v>
+      </c>
+      <c r="B167">
+        <v>0.7987188918512057</v>
+      </c>
+      <c r="C167">
+        <v>0.44142757013809053</v>
+      </c>
+      <c r="D167">
+        <v>0.95244627539406612</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>1.837483749753088E-5</v>
+      </c>
+      <c r="B168">
+        <v>-9.187503158204209E-6</v>
+      </c>
+      <c r="C168">
+        <v>0.99996325083145687</v>
+      </c>
+      <c r="D168">
+        <v>0.99999081258125122</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>0.10479177069809248</v>
+      </c>
+      <c r="B169">
+        <v>0.79034359558655232</v>
+      </c>
+      <c r="C169">
+        <v>0.40636334265105817</v>
+      </c>
+      <c r="D169">
+        <v>0.94760411465095373</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>8.785471862394939E-2</v>
+      </c>
+      <c r="B170">
+        <v>0.81874258061474692</v>
+      </c>
+      <c r="C170">
+        <v>0.43529860727710373</v>
+      </c>
+      <c r="D170">
+        <v>0.95607264068802533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>9.0243186722978125E-2</v>
+      </c>
+      <c r="B171">
+        <v>0.8121925401112039</v>
+      </c>
+      <c r="C171">
+        <v>0.43739340539897498</v>
+      </c>
+      <c r="D171">
+        <v>0.95487840663851098</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>9.2046737435025949E-2</v>
+      </c>
+      <c r="B172">
+        <v>0.79504093549358545</v>
+      </c>
+      <c r="C172">
+        <v>0.46740392638630501</v>
+      </c>
+      <c r="D172">
+        <v>0.953976631282487</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>8.7852681888467177E-2</v>
+      </c>
+      <c r="B173">
+        <v>0.81272548227453334</v>
+      </c>
+      <c r="C173">
+        <v>0.45076501782650336</v>
+      </c>
+      <c r="D173">
+        <v>0.95607365905576636</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2.4587496137604286E-2</v>
+      </c>
+      <c r="B174">
+        <v>0.76362175816710154</v>
+      </c>
+      <c r="C174">
+        <v>0.87200015557894894</v>
+      </c>
+      <c r="D174">
+        <v>0.98770625193119788</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>4.0863697705802969E-2</v>
+      </c>
+      <c r="B175">
+        <v>0.82603083618499884</v>
+      </c>
+      <c r="C175">
+        <v>0.72591733594581043</v>
+      </c>
+      <c r="D175">
+        <v>0.9795681511470985</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>9.9779579475974184E-2</v>
+      </c>
+      <c r="B176">
+        <v>0.80049818897591585</v>
+      </c>
+      <c r="C176">
+        <v>0.41025980526551453</v>
+      </c>
+      <c r="D176">
+        <v>0.95011021026201303</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>0.10376604027880958</v>
+      </c>
+      <c r="B177">
+        <v>0.79164848311348324</v>
+      </c>
+      <c r="C177">
+        <v>0.40898424681216766</v>
+      </c>
+      <c r="D177">
+        <v>0.94811697986059507</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>0.1007536592961694</v>
+      </c>
+      <c r="B178">
+        <v>0.79822796607249225</v>
+      </c>
+      <c r="C178">
+        <v>0.41035848349467507</v>
+      </c>
+      <c r="D178">
+        <v>0.94962317035191535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8.0683626478918413E-2</v>
+      </c>
+      <c r="B179">
+        <v>0.82340371146813163</v>
+      </c>
+      <c r="C179">
+        <v>0.46894448129891986</v>
+      </c>
+      <c r="D179">
+        <v>0.95965818676054082</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>3.320190910977381E-4</v>
+      </c>
+      <c r="B180">
+        <v>0.60546772335974408</v>
+      </c>
+      <c r="C180">
+        <v>0.99882653999563242</v>
+      </c>
+      <c r="D180">
+        <v>0.9998339904544512</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>5.3246009877134834E-5</v>
+      </c>
+      <c r="B181">
+        <v>0.57140194676969969</v>
+      </c>
+      <c r="C181">
+        <v>0.99982252385342152</v>
+      </c>
+      <c r="D181">
+        <v>0.99997337699506139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>7.3949528117348673E-2</v>
+      </c>
+      <c r="B182">
+        <v>0.80515100830329389</v>
+      </c>
+      <c r="C182">
+        <v>0.5519967886337197</v>
+      </c>
+      <c r="D182">
+        <v>0.96302523594132561</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>7.9132547016252233E-2</v>
+      </c>
+      <c r="B183">
+        <v>0.831887604191626</v>
+      </c>
+      <c r="C183">
+        <v>0.4565509618865275</v>
+      </c>
+      <c r="D183">
+        <v>0.96043372649187397</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>6.741822667080369E-4</v>
+      </c>
+      <c r="B184">
+        <v>0.71394822497607158</v>
+      </c>
+      <c r="C184">
+        <v>0.99696941826713104</v>
+      </c>
+      <c r="D184">
+        <v>0.99966290886664588</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8.9164631535359529E-2</v>
+      </c>
+      <c r="B185">
+        <v>0.81766123436711113</v>
+      </c>
+      <c r="C185">
+        <v>0.42978058067483549</v>
+      </c>
+      <c r="D185">
+        <v>0.95541768423232032</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>2.3167908121093768E-2</v>
+      </c>
+      <c r="B186">
+        <v>0.80889176282112485</v>
+      </c>
+      <c r="C186">
+        <v>0.85614510139547173</v>
+      </c>
+      <c r="D186">
+        <v>0.98841604593945309</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>9.5107449211867645E-2</v>
+      </c>
+      <c r="B187">
+        <v>0.7987188918512057</v>
+      </c>
+      <c r="C187">
+        <v>0.44142757013809053</v>
+      </c>
+      <c r="D187">
+        <v>0.95244627539406612</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>1.837483749753088E-5</v>
+      </c>
+      <c r="B188">
+        <v>-9.187503158204209E-6</v>
+      </c>
+      <c r="C188">
+        <v>0.99996325083145687</v>
+      </c>
+      <c r="D188">
+        <v>0.99999081258125122</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>0.10479177069809248</v>
+      </c>
+      <c r="B189">
+        <v>0.79034359558655232</v>
+      </c>
+      <c r="C189">
+        <v>0.40636334265105817</v>
+      </c>
+      <c r="D189">
+        <v>0.94760411465095373</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>8.785471862394939E-2</v>
+      </c>
+      <c r="B190">
+        <v>0.81874258061474692</v>
+      </c>
+      <c r="C190">
+        <v>0.43529860727710373</v>
+      </c>
+      <c r="D190">
+        <v>0.95607264068802533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9.0243186722978125E-2</v>
+      </c>
+      <c r="B191">
+        <v>0.8121925401112039</v>
+      </c>
+      <c r="C191">
+        <v>0.43739340539897498</v>
+      </c>
+      <c r="D191">
+        <v>0.95487840663851098</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>9.2046737435025949E-2</v>
+      </c>
+      <c r="B192">
+        <v>0.79504093549358545</v>
+      </c>
+      <c r="C192">
+        <v>0.46740392638630501</v>
+      </c>
+      <c r="D192">
+        <v>0.953976631282487</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>8.7852681888467177E-2</v>
+      </c>
+      <c r="B193">
+        <v>0.81272548227453334</v>
+      </c>
+      <c r="C193">
+        <v>0.45076501782650336</v>
+      </c>
+      <c r="D193">
+        <v>0.95607365905576636</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>2.4587496137604286E-2</v>
+      </c>
+      <c r="B194">
+        <v>0.76362175816710154</v>
+      </c>
+      <c r="C194">
+        <v>0.87200015557894894</v>
+      </c>
+      <c r="D194">
+        <v>0.98770625193119788</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>4.0863697705802969E-2</v>
+      </c>
+      <c r="B195">
+        <v>0.82603083618499884</v>
+      </c>
+      <c r="C195">
+        <v>0.72591733594581043</v>
+      </c>
+      <c r="D195">
+        <v>0.9795681511470985</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9.9779579475974184E-2</v>
+      </c>
+      <c r="B196">
+        <v>0.80049818897591585</v>
+      </c>
+      <c r="C196">
+        <v>0.41025980526551453</v>
+      </c>
+      <c r="D196">
+        <v>0.95011021026201303</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>0.10376604027880958</v>
+      </c>
+      <c r="B197">
+        <v>0.79164848311348324</v>
+      </c>
+      <c r="C197">
+        <v>0.40898424681216766</v>
+      </c>
+      <c r="D197">
+        <v>0.94811697986059507</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>0.1007536592961694</v>
+      </c>
+      <c r="B198">
+        <v>0.79822796607249225</v>
+      </c>
+      <c r="C198">
+        <v>0.41035848349467507</v>
+      </c>
+      <c r="D198">
+        <v>0.94962317035191535</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>8.0683626478918413E-2</v>
+      </c>
+      <c r="B199">
+        <v>0.82340371146813163</v>
+      </c>
+      <c r="C199">
+        <v>0.46894448129891986</v>
+      </c>
+      <c r="D199">
+        <v>0.95965818676054082</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>3.320190910977381E-4</v>
+      </c>
+      <c r="B200">
+        <v>0.60546772335974408</v>
+      </c>
+      <c r="C200">
+        <v>0.99882653999563242</v>
+      </c>
+      <c r="D200">
+        <v>0.9998339904544512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>3.4966159423467673E-3</v>
+      </c>
+      <c r="B201">
+        <v>0.69111000102709397</v>
+      </c>
+      <c r="C201">
+        <v>0.98519594785321363</v>
+      </c>
+      <c r="D201">
+        <v>0.99825169202882658</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>3.3013835798457354E-3</v>
+      </c>
+      <c r="B202">
+        <v>0.71120197845281397</v>
+      </c>
+      <c r="C202">
+        <v>0.9852780666031975</v>
+      </c>
+      <c r="D202">
+        <v>0.99834930821007717</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>7.3332703868064083E-3</v>
+      </c>
+      <c r="B203">
+        <v>0.6974578993262317</v>
+      </c>
+      <c r="C203">
+        <v>0.96851939311169166</v>
+      </c>
+      <c r="D203">
+        <v>0.99633336480659673</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>7.1395095609271568E-3</v>
+      </c>
+      <c r="B204">
+        <v>0.71568371793488073</v>
+      </c>
+      <c r="C204">
+        <v>0.96780116262286042</v>
+      </c>
+      <c r="D204">
+        <v>0.99643024521953649</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>6.7414107033970504E-3</v>
+      </c>
+      <c r="B205">
+        <v>0.68525385280930873</v>
+      </c>
+      <c r="C205">
+        <v>0.9718897866866324</v>
+      </c>
+      <c r="D205">
+        <v>0.99662929464830141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>1.1979828212834991E-2</v>
+      </c>
+      <c r="B206">
+        <v>0.71225530563743467</v>
+      </c>
+      <c r="C206">
+        <v>0.94654143272763946</v>
+      </c>
+      <c r="D206">
+        <v>0.99401008589358253</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1.4783611923479382E-2</v>
+      </c>
+      <c r="B207">
+        <v>0.71669179950548656</v>
+      </c>
+      <c r="C207">
+        <v>0.9332529148513331</v>
+      </c>
+      <c r="D207">
+        <v>0.99260819403826028</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1.8920389288520825E-2</v>
+      </c>
+      <c r="B208">
+        <v>0.74756027709002093</v>
+      </c>
+      <c r="C208">
+        <v>0.90648883461479712</v>
+      </c>
+      <c r="D208">
+        <v>0.9905398053557396</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4.4692556284519194E-2</v>
+      </c>
+      <c r="B209">
+        <v>0.85749784042792543</v>
+      </c>
+      <c r="C209">
+        <v>0.64367802203329649</v>
+      </c>
+      <c r="D209">
+        <v>0.97765372185774047</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>1.3189953344939487E-2</v>
+      </c>
+      <c r="B210">
+        <v>0.8107706391712084</v>
+      </c>
+      <c r="C210">
+        <v>0.91728051731155225</v>
+      </c>
+      <c r="D210">
+        <v>0.99340502332753022</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>4.8101175036159554E-3</v>
+      </c>
+      <c r="B211">
+        <v>0.69835499878327623</v>
+      </c>
+      <c r="C211">
+        <v>0.97926706335430747</v>
+      </c>
+      <c r="D211">
+        <v>0.99759494124819204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>3.8057754683159372E-3</v>
+      </c>
+      <c r="B212">
+        <v>0.66154643792848922</v>
+      </c>
+      <c r="C212">
+        <v>0.98496414621357176</v>
+      </c>
+      <c r="D212">
+        <v>0.99809711226584197</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>6.2616383761318339E-2</v>
+      </c>
+      <c r="B213">
+        <v>0.86192479022076929</v>
+      </c>
+      <c r="C213">
+        <v>0.48780967954293519</v>
+      </c>
+      <c r="D213">
+        <v>0.96869180811934097</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4.3927383551407347E-3</v>
+      </c>
+      <c r="B214">
+        <v>0.67088907746002668</v>
+      </c>
+      <c r="C214">
+        <v>0.98228073729331877</v>
+      </c>
+      <c r="D214">
+        <v>0.99780363082242962</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>1.666158691455857E-2</v>
+      </c>
+      <c r="B215">
+        <v>0.74082353613758467</v>
+      </c>
+      <c r="C215">
+        <v>0.91934148844564845</v>
+      </c>
+      <c r="D215">
+        <v>0.99166920654272073</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>2.56765897699072E-2</v>
+      </c>
+      <c r="B216">
+        <v>0.77683330443173437</v>
+      </c>
+      <c r="C216">
+        <v>0.86002457486561745</v>
+      </c>
+      <c r="D216">
+        <v>0.98716170511504653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>9.0678223040613262E-4</v>
+      </c>
+      <c r="B217">
+        <v>0.79016270394828536</v>
+      </c>
+      <c r="C217">
+        <v>0.99477533203359214</v>
+      </c>
+      <c r="D217">
+        <v>0.99954660888479707</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>7.1902312031240315E-3</v>
+      </c>
+      <c r="B218">
+        <v>0.75729332261569404</v>
+      </c>
+      <c r="C218">
+        <v>0.9632364306382345</v>
+      </c>
+      <c r="D218">
+        <v>0.996404884398438</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>9.8777754014083945E-3</v>
+      </c>
+      <c r="B219">
+        <v>0.68141610078827175</v>
+      </c>
+      <c r="C219">
+        <v>0.95922200390121315</v>
+      </c>
+      <c r="D219">
+        <v>0.99506111229929572</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>8.2046888156825683E-3</v>
+      </c>
+      <c r="B220">
+        <v>0.66155746874121424</v>
+      </c>
+      <c r="C220">
+        <v>0.96762060760686774</v>
+      </c>
+      <c r="D220">
+        <v>0.99589765559215859</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1.1600156639057801E-3</v>
+      </c>
+      <c r="B221">
+        <v>0.6039550706094865</v>
+      </c>
+      <c r="C221">
+        <v>0.99591234407265095</v>
+      </c>
+      <c r="D221">
+        <v>0.99941999216804711</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>1.6215251228606748E-2</v>
+      </c>
+      <c r="B222">
+        <v>0.77985351448676632</v>
+      </c>
+      <c r="C222">
+        <v>0.91039105770677931</v>
+      </c>
+      <c r="D222">
+        <v>0.99189237438569655</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>6.246607171146433E-2</v>
+      </c>
+      <c r="B223">
+        <v>0.84698807605113868</v>
+      </c>
+      <c r="C223">
+        <v>0.53319456462070636</v>
+      </c>
+      <c r="D223">
+        <v>0.96876696414426788</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>2.087917208103169E-2</v>
+      </c>
+      <c r="B224">
+        <v>0.72097238584870016</v>
+      </c>
+      <c r="C224">
+        <v>0.9047296071202825</v>
+      </c>
+      <c r="D224">
+        <v>0.98956041395948413</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>3.2500895053261484E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.56286381752140779</v>
+      </c>
+      <c r="C225">
+        <v>0.98932566817003942</v>
+      </c>
+      <c r="D225">
+        <v>0.99837495524733688</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>3.9357441766285188E-2</v>
+      </c>
+      <c r="B226">
+        <v>0.73780610014564418</v>
+      </c>
+      <c r="C226">
+        <v>0.81216116907163982</v>
+      </c>
+      <c r="D226">
+        <v>0.9803212791168574</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>3.7117475226299192E-2</v>
+      </c>
+      <c r="B227">
+        <v>0.76843528579979925</v>
+      </c>
+      <c r="C227">
+        <v>0.80397077606531042</v>
+      </c>
+      <c r="D227">
+        <v>0.98144126238685048</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>7.2461969565724593E-2</v>
+      </c>
+      <c r="B228">
+        <v>0.8501521784455649</v>
+      </c>
+      <c r="C228">
+        <v>0.44921919433402935</v>
+      </c>
+      <c r="D228">
+        <v>0.96376901521713765</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>2.2852176580353264E-2</v>
+      </c>
+      <c r="B229">
+        <v>0.76725797827564368</v>
+      </c>
+      <c r="C229">
+        <v>0.87948417558704328</v>
+      </c>
+      <c r="D229">
+        <v>0.98857391170982345</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>4.6230977878893575E-3</v>
+      </c>
+      <c r="B230">
+        <v>0.64304153461125102</v>
+      </c>
+      <c r="C230">
+        <v>0.98244694528581888</v>
+      </c>
+      <c r="D230">
+        <v>0.99768845110605542</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1.0572119258662369E-3</v>
+      </c>
+      <c r="B231">
+        <v>0.60333542201818091</v>
+      </c>
+      <c r="C231">
+        <v>0.99627865158780604</v>
+      </c>
+      <c r="D231">
+        <v>0.99947139403706675</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>5.10399078862705E-3</v>
+      </c>
+      <c r="B232">
+        <v>0.66908907816480789</v>
+      </c>
+      <c r="C232">
+        <v>0.97949868419238673</v>
+      </c>
+      <c r="D232">
+        <v>0.9974480046056865</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2.2361083483664747E-3</v>
+      </c>
+      <c r="B233">
+        <v>0.5124250932801383</v>
+      </c>
+      <c r="C233">
+        <v>0.99318377379133216</v>
+      </c>
+      <c r="D233">
+        <v>0.99888194582581669</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>7.7523127027957876E-3</v>
+      </c>
+      <c r="B234">
+        <v>0.596025981354113</v>
+      </c>
+      <c r="C234">
+        <v>0.97311777534014898</v>
+      </c>
+      <c r="D234">
+        <v>0.99612384364860207</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>4.6832766879867267E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.44977843550976437</v>
+      </c>
+      <c r="C235">
+        <v>0.98682754371995429</v>
+      </c>
+      <c r="D235">
+        <v>0.99765836165600663</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>1.8743435445403218E-3</v>
+      </c>
+      <c r="B236">
+        <v>0.57830067436046795</v>
+      </c>
+      <c r="C236">
+        <v>0.99368824633099739</v>
+      </c>
+      <c r="D236">
+        <v>0.99906282822772985</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>8.7435012748757852E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.68533588375043297</v>
+      </c>
+      <c r="C237">
+        <v>0.99635016270841814</v>
+      </c>
+      <c r="D237">
+        <v>0.99956282493625614</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>5.7319602193887584E-3</v>
+      </c>
+      <c r="B238">
+        <v>0.57133012122488003</v>
+      </c>
+      <c r="C238">
+        <v>0.98092947580183343</v>
+      </c>
+      <c r="D238">
+        <v>0.99713401989030559</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>2.6340810649012219E-3</v>
+      </c>
+      <c r="B239">
+        <v>0.58132078238006246</v>
+      </c>
+      <c r="C239">
+        <v>0.99108224649754884</v>
+      </c>
+      <c r="D239">
+        <v>0.99868295946754937</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>5.4261725887204057E-3</v>
+      </c>
+      <c r="B240">
+        <v>0.70496298420313308</v>
+      </c>
+      <c r="C240">
+        <v>0.97621177509962864</v>
+      </c>
+      <c r="D240">
+        <v>0.99728691370563993</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>6.3902075262363356E-2</v>
+      </c>
+      <c r="B241">
+        <v>0.79907897937570338</v>
+      </c>
+      <c r="C241">
+        <v>0.62213571707030857</v>
+      </c>
+      <c r="D241">
+        <v>0.96804896236881832</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>7.2129477675287185E-2</v>
+      </c>
+      <c r="B242">
+        <v>0.80316514172253695</v>
+      </c>
+      <c r="C242">
+        <v>0.5666268210326395</v>
+      </c>
+      <c r="D242">
+        <v>0.96393526116235639</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>3.7710991550818834E-2</v>
+      </c>
+      <c r="B243">
+        <v>0.78885699478183569</v>
+      </c>
+      <c r="C243">
+        <v>0.7851071642026094</v>
+      </c>
+      <c r="D243">
+        <v>0.98114450422459054</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>4.383299778333638E-2</v>
+      </c>
+      <c r="B244">
+        <v>0.80813628239724555</v>
+      </c>
+      <c r="C244">
+        <v>0.72962935814450569</v>
+      </c>
+      <c r="D244">
+        <v>0.97808350110833175</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>6.9991391358596972E-2</v>
+      </c>
+      <c r="B245">
+        <v>0.81411711403359777</v>
+      </c>
+      <c r="C245">
+        <v>0.55837252236394996</v>
+      </c>
+      <c r="D245">
+        <v>0.9650043043207015</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>7.3351756810106583E-2</v>
+      </c>
+      <c r="B246">
+        <v>0.80112421947535617</v>
+      </c>
+      <c r="C246">
+        <v>0.56319685217467563</v>
+      </c>
+      <c r="D246">
+        <v>0.96332412159494663</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>6.7317800064178923E-2</v>
+      </c>
+      <c r="B247">
+        <v>0.81597733262365724</v>
+      </c>
+      <c r="C247">
+        <v>0.57140148847503269</v>
+      </c>
+      <c r="D247">
+        <v>0.96634109996791051</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>5.9259610670967945E-2</v>
+      </c>
+      <c r="B248">
+        <v>0.81042914203412619</v>
+      </c>
+      <c r="C248">
+        <v>0.63165337195976012</v>
+      </c>
+      <c r="D248">
+        <v>0.97037019466451602</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>5.5266817458322862E-2</v>
+      </c>
+      <c r="B249">
+        <v>0.81295321119272956</v>
+      </c>
+      <c r="C249">
+        <v>0.65231750086911922</v>
+      </c>
+      <c r="D249">
+        <v>0.97236659127083858</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>6.3504018519424194E-2</v>
+      </c>
+      <c r="B250">
+        <v>0.83067106120359346</v>
+      </c>
+      <c r="C250">
+        <v>0.56549532766893862</v>
+      </c>
+      <c r="D250">
+        <v>0.96824799074028789</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>8.1537826911970951E-2</v>
+      </c>
+      <c r="B251">
+        <v>0.81114943240207971</v>
+      </c>
+      <c r="C251">
+        <v>0.4933529351336704</v>
+      </c>
+      <c r="D251">
+        <v>0.95923108654401457</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>8.4238361484343743E-2</v>
+      </c>
+      <c r="B252">
+        <v>0.80429200260553235</v>
+      </c>
+      <c r="C252">
+        <v>0.49242894230648704</v>
+      </c>
+      <c r="D252">
+        <v>0.9578808192578282</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>5.8231998906954505E-2</v>
+      </c>
+      <c r="B253">
+        <v>0.80664515326358421</v>
+      </c>
+      <c r="C253">
+        <v>0.64399296451796051</v>
+      </c>
+      <c r="D253">
+        <v>0.97088400054652269</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>6.1789665914706193E-2</v>
+      </c>
+      <c r="B254">
+        <v>0.7963731055017863</v>
+      </c>
+      <c r="C254">
+        <v>0.63858319229011518</v>
+      </c>
+      <c r="D254">
+        <v>0.96910516704264693</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>7.4764877269690416E-2</v>
+      </c>
+      <c r="B255">
+        <v>0.79267760485038918</v>
+      </c>
+      <c r="C255">
+        <v>0.57020403789855467</v>
+      </c>
+      <c r="D255">
+        <v>0.96261756136515486</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>7.7452299751129133E-2</v>
+      </c>
+      <c r="B256">
+        <v>0.80507802718889609</v>
+      </c>
+      <c r="C256">
+        <v>0.53119628480353343</v>
+      </c>
+      <c r="D256">
+        <v>0.96127385012443545</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>4.6825379305124995E-2</v>
+      </c>
+      <c r="B257">
+        <v>0.8012597728191837</v>
+      </c>
+      <c r="C257">
+        <v>0.71975645988554582</v>
+      </c>
+      <c r="D257">
+        <v>0.97658731034743751</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>1.9886992717474329E-2</v>
+      </c>
+      <c r="B258">
+        <v>0.83692630275708457</v>
+      </c>
+      <c r="C258">
+        <v>0.85855757025429114</v>
+      </c>
+      <c r="D258">
+        <v>0.99005650364126285</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>5.8313820085897514E-2</v>
+      </c>
+      <c r="B259">
+        <v>0.81460856682510741</v>
+      </c>
+      <c r="C259">
+        <v>0.63054248839215776</v>
+      </c>
+      <c r="D259">
+        <v>0.97084308995705126</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>3.0633620741488989E-2</v>
+      </c>
+      <c r="B260">
+        <v>0.843252396927335</v>
+      </c>
+      <c r="C260">
+        <v>0.77487203682326555</v>
+      </c>
+      <c r="D260">
+        <v>0.9846831896292555</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>7.8923218109513624E-3</v>
+      </c>
+      <c r="B261">
+        <v>0.71931022770491382</v>
+      </c>
+      <c r="C261">
+        <v>0.96405242078938658</v>
+      </c>
+      <c r="D261">
+        <v>0.99605383909452438</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>1.5138776212601715E-2</v>
+      </c>
+      <c r="B262">
+        <v>0.73674446984080844</v>
+      </c>
+      <c r="C262">
+        <v>0.92758440760630534</v>
+      </c>
+      <c r="D262">
+        <v>0.99243061189369908</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>1.7616344027179244E-2</v>
+      </c>
+      <c r="B263">
+        <v>0.71237021951182977</v>
+      </c>
+      <c r="C263">
+        <v>0.92144759340577509</v>
+      </c>
+      <c r="D263">
+        <v>0.99119182798641037</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>1.1837836024404153E-2</v>
+      </c>
+      <c r="B264">
+        <v>0.73140380537572502</v>
+      </c>
+      <c r="C264">
+        <v>0.94422960648243315</v>
+      </c>
+      <c r="D264">
+        <v>0.99408108198779788</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>1.0797832561434812E-2</v>
+      </c>
+      <c r="B265">
+        <v>0.71047567955295554</v>
+      </c>
+      <c r="C265">
+        <v>0.95202379065468157</v>
+      </c>
+      <c r="D265">
+        <v>0.99460108371928257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>1.1799994223779052E-3</v>
+      </c>
+      <c r="B266">
+        <v>0.58848961171722791</v>
+      </c>
+      <c r="C266">
+        <v>0.99595390905367309</v>
+      </c>
+      <c r="D266">
+        <v>0.99941000028881111</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>1.4093480687332634E-2</v>
+      </c>
+      <c r="B267">
+        <v>0.71353784244346163</v>
+      </c>
+      <c r="C267">
+        <v>0.93690676419548113</v>
+      </c>
+      <c r="D267">
+        <v>0.99295325965633374</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>1.4517124157704359E-5</v>
+      </c>
+      <c r="B272">
+        <v>-7.2586147659580649E-6</v>
+      </c>
+      <c r="C272">
+        <v>0.999970966067805</v>
+      </c>
+      <c r="D272">
+        <v>0.99999274143792116</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>6.2078580942317024E-3</v>
+      </c>
+      <c r="B273">
+        <v>0.75619120136938611</v>
+      </c>
+      <c r="C273">
+        <v>0.96836868612726812</v>
+      </c>
+      <c r="D273">
+        <v>0.99689607095288413</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>4.9203316303518853E-3</v>
+      </c>
+      <c r="B274">
+        <v>0.7304547779210514</v>
+      </c>
+      <c r="C274">
+        <v>0.97684968985574994</v>
+      </c>
+      <c r="D274">
+        <v>0.99753983418482406</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>4.4101534245070241E-3</v>
+      </c>
+      <c r="B277">
+        <v>0.71952412868890547</v>
+      </c>
+      <c r="C277">
+        <v>0.97988581057370927</v>
+      </c>
+      <c r="D277">
+        <v>0.99779492328774644</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>6.9914180343628196E-5</v>
+      </c>
+      <c r="B280">
+        <v>-3.4958312212686381E-5</v>
+      </c>
+      <c r="C280">
+        <v>0.99986017897130164</v>
+      </c>
+      <c r="D280">
+        <v>0.99996504290982813</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>7.8923218109513624E-3</v>
+      </c>
+      <c r="B281">
+        <v>0.71931022770491382</v>
+      </c>
+      <c r="C281">
+        <v>0.96405242078938658</v>
+      </c>
+      <c r="D281">
+        <v>0.99605383909452438</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>1.5138776212601715E-2</v>
+      </c>
+      <c r="B282">
+        <v>0.73674446984080844</v>
+      </c>
+      <c r="C282">
+        <v>0.92758440760630534</v>
+      </c>
+      <c r="D282">
+        <v>0.99243061189369908</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>1.7616344027179244E-2</v>
+      </c>
+      <c r="B283">
+        <v>0.71237021951182977</v>
+      </c>
+      <c r="C283">
+        <v>0.92144759340577509</v>
+      </c>
+      <c r="D283">
+        <v>0.99119182798641037</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>1.1837836024404153E-2</v>
+      </c>
+      <c r="B284">
+        <v>0.73140380537572502</v>
+      </c>
+      <c r="C284">
+        <v>0.94422960648243315</v>
+      </c>
+      <c r="D284">
+        <v>0.99408108198779788</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>1.0797832561434812E-2</v>
+      </c>
+      <c r="B285">
+        <v>0.71047567955295554</v>
+      </c>
+      <c r="C285">
+        <v>0.95202379065468157</v>
+      </c>
+      <c r="D285">
+        <v>0.99460108371928257</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>1.1799994223779052E-3</v>
+      </c>
+      <c r="B286">
+        <v>0.58848961171722791</v>
+      </c>
+      <c r="C286">
+        <v>0.99595390905367309</v>
+      </c>
+      <c r="D286">
+        <v>0.99941000028881111</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>1.4093480687332634E-2</v>
+      </c>
+      <c r="B287">
+        <v>0.71353784244346163</v>
+      </c>
+      <c r="C287">
+        <v>0.93690676419548113</v>
+      </c>
+      <c r="D287">
+        <v>0.99295325965633374</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>1.4517124157704359E-5</v>
+      </c>
+      <c r="B292">
+        <v>-7.2586147659580649E-6</v>
+      </c>
+      <c r="C292">
+        <v>0.999970966067805</v>
+      </c>
+      <c r="D292">
+        <v>0.99999274143792116</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>6.2078580942317024E-3</v>
+      </c>
+      <c r="B293">
+        <v>0.75619120136938611</v>
+      </c>
+      <c r="C293">
+        <v>0.96836868612726812</v>
+      </c>
+      <c r="D293">
+        <v>0.99689607095288413</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>4.9203316303518853E-3</v>
+      </c>
+      <c r="B294">
+        <v>0.7304547779210514</v>
+      </c>
+      <c r="C294">
+        <v>0.97684968985574994</v>
+      </c>
+      <c r="D294">
+        <v>0.99753983418482406</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>4.4101534245070241E-3</v>
+      </c>
+      <c r="B297">
+        <v>0.71952412868890547</v>
+      </c>
+      <c r="C297">
+        <v>0.97988581057370927</v>
+      </c>
+      <c r="D297">
+        <v>0.99779492328774644</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>6.9914180343628196E-5</v>
+      </c>
+      <c r="B300">
+        <v>-3.4958312212686381E-5</v>
+      </c>
+      <c r="C300">
+        <v>0.99986017897130164</v>
+      </c>
+      <c r="D300">
+        <v>0.99996504290982813</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>6.1857264362483565E-5</v>
+      </c>
+      <c r="B301">
+        <v>0.65514148238659053</v>
+      </c>
+      <c r="C301">
+        <v>0.99975877658498791</v>
+      </c>
+      <c r="D301">
+        <v>0.99996907136781876</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>1.8734266143668404E-5</v>
+      </c>
+      <c r="B302">
+        <v>-9.3672208158380998E-6</v>
+      </c>
+      <c r="C302">
+        <v>0.99996253199417184</v>
+      </c>
+      <c r="D302">
+        <v>0.99999063286692824</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>6.0300423055073329E-5</v>
+      </c>
+      <c r="B304">
+        <v>0.84785483398480754</v>
+      </c>
+      <c r="C304">
+        <v>0.99955575931563612</v>
+      </c>
+      <c r="D304">
+        <v>0.99996984978847248</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>2.2526010502752396E-5</v>
+      </c>
+      <c r="B305">
+        <v>0.49998873674103245</v>
+      </c>
+      <c r="C305">
+        <v>0.99993242349075528</v>
+      </c>
+      <c r="D305">
+        <v>0.99998873699474866</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>1.6984224486156442E-5</v>
+      </c>
+      <c r="B306">
+        <v>0.24999150779160123</v>
+      </c>
+      <c r="C306">
+        <v>0.9999603706877418</v>
+      </c>
+      <c r="D306">
+        <v>0.99999150788775693</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>5.4155192535248262E-5</v>
+      </c>
+      <c r="B307">
+        <v>0.67739227496934273</v>
+      </c>
+      <c r="C307">
+        <v>0.99977798073542168</v>
+      </c>
+      <c r="D307">
+        <v>0.99997292240373237</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>2.8169569540807847E-5</v>
+      </c>
+      <c r="B313">
+        <v>0.72626127487593839</v>
+      </c>
+      <c r="C313">
+        <v>0.99987605952804537</v>
+      </c>
+      <c r="D313">
+        <v>0.9999859152152295</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>8.385116418357416E-5</v>
+      </c>
+      <c r="B315">
+        <v>0.71995806813927377</v>
+      </c>
+      <c r="C315">
+        <v>0.99961673226399572</v>
+      </c>
+      <c r="D315">
+        <v>0.99995807441790818</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>6.8169230113757399E-5</v>
+      </c>
+      <c r="B318">
+        <v>0.78178409187755515</v>
+      </c>
+      <c r="C318">
+        <v>0.99961944192233909</v>
+      </c>
+      <c r="D318">
+        <v>0.99996591538494317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>3.2074610478528513E-5</v>
+      </c>
+      <c r="B320">
+        <v>0.83568979048938974</v>
+      </c>
+      <c r="C320">
+        <v>0.999782898077889</v>
+      </c>
+      <c r="D320">
+        <v>0.99998396269476075</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>6.0433393766727099E-5</v>
+      </c>
+      <c r="B322">
+        <v>0.56246978121600388</v>
+      </c>
+      <c r="C322">
+        <v>0.99980144632738943</v>
+      </c>
+      <c r="D322">
+        <v>0.99996978330311659</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>5.1734395612923249E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.63997413094341571</v>
+      </c>
+      <c r="C323">
+        <v>0.99980457195215566</v>
+      </c>
+      <c r="D323">
+        <v>0.99997413280219349</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>0</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>0</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>0</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>7.6221836031586327E-6</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+      <c r="C333">
+        <v>0.99998475574898893</v>
+      </c>
+      <c r="D333">
+        <v>0.99999618890819841</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>0</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>2.7036964938463866E-5</v>
+      </c>
+      <c r="B338">
+        <v>0.92762017381766415</v>
+      </c>
+      <c r="C338">
+        <v>0.99959992327010749</v>
+      </c>
+      <c r="D338">
+        <v>0.99998648151753078</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>0</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>0</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>0</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>3.5901969671811122E-5</v>
+      </c>
+      <c r="B347">
+        <v>0.42855347702265872</v>
+      </c>
+      <c r="C347">
+        <v>0.99990127284606067</v>
+      </c>
+      <c r="D347">
+        <v>0.99998204901516408</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>8.6076533776236231E-5</v>
+      </c>
+      <c r="B350">
+        <v>0.71424266953482596</v>
+      </c>
+      <c r="C350">
+        <v>0.99961270838834082</v>
+      </c>
+      <c r="D350">
+        <v>0.99995696173311188</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>3.7869374326931044E-5</v>
+      </c>
+      <c r="B351">
+        <v>0.63634470069048488</v>
+      </c>
+      <c r="C351">
+        <v>0.99985799670301456</v>
+      </c>
+      <c r="D351">
+        <v>0.99998106531283659</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>3.1402350465932373E-5</v>
+      </c>
+      <c r="B352">
+        <v>0.59998429820842558</v>
+      </c>
+      <c r="C352">
+        <v>0.99989009584106325</v>
+      </c>
+      <c r="D352">
+        <v>0.99998429882476703</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>6.6583437369954228E-5</v>
+      </c>
+      <c r="B353">
+        <v>0.74070744474648675</v>
+      </c>
+      <c r="C353">
+        <v>0.99967663214485492</v>
+      </c>
+      <c r="D353">
+        <v>0.99996670828131506</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>4.2390731266608559E-5</v>
+      </c>
+      <c r="B354">
+        <v>0.69228649548191712</v>
+      </c>
+      <c r="C354">
+        <v>0.99981985067936041</v>
+      </c>
+      <c r="D354">
+        <v>0.99997880463436672</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>4.5918350612845983E-5</v>
+      </c>
+      <c r="B356">
+        <v>0.6666437059098802</v>
+      </c>
+      <c r="C356">
+        <v>0.99981633819427074</v>
+      </c>
+      <c r="D356">
+        <v>0.99997704082469352</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>5.3340978873638553E-5</v>
+      </c>
+      <c r="B357">
+        <v>0.63633696391793992</v>
+      </c>
+      <c r="C357">
+        <v>0.99979998493312339</v>
+      </c>
+      <c r="D357">
+        <v>0.99997332951056317</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>4.3633144983590821E-5</v>
+      </c>
+      <c r="B358">
+        <v>0.69563035577656163</v>
+      </c>
+      <c r="C358">
+        <v>0.99981301298797642</v>
+      </c>
+      <c r="D358">
+        <v>0.99997818342750822</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>4.5566835155464279E-5</v>
+      </c>
+      <c r="B359">
+        <v>0.69562938878977598</v>
+      </c>
+      <c r="C359">
+        <v>0.99980472684793542</v>
+      </c>
+      <c r="D359">
+        <v>0.99997721658242222</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>5.5743949458819154E-5</v>
+      </c>
+      <c r="B360">
+        <v>0.66663879236120138</v>
+      </c>
+      <c r="C360">
+        <v>0.9997770412927981</v>
+      </c>
+      <c r="D360">
+        <v>0.99997212802527058</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>1.6325930884171603E-5</v>
+      </c>
+      <c r="B361">
+        <v>0.33332517026793906</v>
+      </c>
+      <c r="C361">
+        <v>0.99995918573917864</v>
+      </c>
+      <c r="D361">
+        <v>0.99999183703455796</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>0</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>0</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>0</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>0</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>0</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>0</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>0</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>0</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>0</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>0</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>0</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>0</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>0</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>0</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>0</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>0</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>1.6325930884171603E-5</v>
+      </c>
+      <c r="B381">
+        <v>0.33332517026793906</v>
+      </c>
+      <c r="C381">
+        <v>0.99995918573917864</v>
+      </c>
+      <c r="D381">
+        <v>0.99999183703455796</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>0</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>0</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>0</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>0</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>0</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>0</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>0</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>0</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>0</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>0</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+      <c r="C391">
+        <v>1</v>
+      </c>
+      <c r="D391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>0</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+      <c r="C392">
+        <v>1</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>0</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>0</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+      <c r="C394">
+        <v>1</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>0</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>1</v>
+      </c>
+      <c r="D396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>0</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>1</v>
+      </c>
+      <c r="D397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>0</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>0</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>